--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA56D92F-9F22-4F82-A6E5-F7EE06B3A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8BCF78-57B5-45D1-BAE5-92C94FDB94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2244" yWindow="1224" windowWidth="21048" windowHeight="14076" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>y</t>
   </si>
@@ -73,22 +73,7 @@
     <t>reg sum</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b1`</t>
-  </si>
-  <si>
     <t>d`</t>
-  </si>
-  <si>
-    <t>b2`</t>
-  </si>
-  <si>
-    <t>b0</t>
   </si>
   <si>
     <t>avg</t>
@@ -209,21 +194,53 @@
     <t>error</t>
   </si>
   <si>
-    <t>error^2</t>
-  </si>
-  <si>
     <t>sst</t>
   </si>
   <si>
     <t>ssr</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <r>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t1`</t>
+  </si>
+  <si>
+    <t>t2`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -251,24 +268,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -289,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -335,21 +340,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,16 +383,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +719,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,399 +730,368 @@
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+      <c r="M1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>140</v>
-      </c>
-      <c r="C2" s="1">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <f>POWER(C2,2)</f>
-        <v>3600</v>
-      </c>
-      <c r="G2" s="1">
-        <f>POWER(D2,2)</f>
-        <v>484</v>
-      </c>
-      <c r="H2" s="1">
-        <f>C2*B2</f>
-        <v>8400</v>
-      </c>
-      <c r="I2" s="1">
-        <f>D2*B2</f>
-        <v>3080</v>
-      </c>
-      <c r="J2" s="1">
-        <f>C2*D2</f>
-        <v>1320</v>
-      </c>
-      <c r="K2" s="1">
-        <f>ROWS(B2:B9)</f>
-        <v>8</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <f>$B$14+$B$18*C2+$B$20*D2</f>
-        <v>145.57094699489909</v>
-      </c>
-      <c r="N2" s="1">
-        <f>B2-M2</f>
-        <v>-5.5709469948990886</v>
-      </c>
-      <c r="O2" s="1">
-        <f>N2^2</f>
-        <v>31.035450419975184</v>
-      </c>
-      <c r="P2" s="1">
-        <f>(B2-$B$11)^2</f>
-        <v>1722.25</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>(M2-$B$11)^2</f>
-        <v>1290.8968498433508</v>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <f>POWER(C3,2)</f>
-        <v>3844</v>
+        <v>3600</v>
       </c>
       <c r="G3" s="1">
         <f>POWER(D3,2)</f>
-        <v>625</v>
+        <v>484</v>
       </c>
       <c r="H3" s="1">
         <f>C3*B3</f>
-        <v>9610</v>
+        <v>8400</v>
       </c>
       <c r="I3" s="1">
         <f>D3*B3</f>
-        <v>3875</v>
+        <v>3080</v>
       </c>
       <c r="J3" s="1">
         <f>C3*D3</f>
-        <v>1550</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>1320</v>
+      </c>
+      <c r="K3" s="1">
+        <f>ROWS(B3:B10)</f>
+        <v>8</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M9" si="0">$B$14+$B$18*C3+$B$20*D3</f>
-        <v>146.89830339321358</v>
+        <f>$G$15+$G$18*C3+$G$20*D3</f>
+        <v>145.57094699489909</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N9" si="1">B3-M3</f>
-        <v>8.1016966067864189</v>
+        <f>B3-M3</f>
+        <v>-5.5709469948990886</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O9" si="2">N3^2</f>
-        <v>65.63748790841457</v>
+        <f>N3^2</f>
+        <v>31.035450419975184</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P9" si="3">(B3-$B$11)^2</f>
-        <v>702.25</v>
+        <f>(B3-$B$12)^2</f>
+        <v>1722.25</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q9" si="4">(M3-$B$11)^2</f>
-        <v>1197.2774080680947</v>
+        <f>(M3-$B$12)^2</f>
+        <v>1290.8968498433508</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <f>POWER(C4,2)</f>
-        <v>4489</v>
+        <v>3844</v>
       </c>
       <c r="G4" s="1">
         <f>POWER(D4,2)</f>
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="H4" s="1">
         <f>C4*B4</f>
-        <v>10653</v>
+        <v>9610</v>
       </c>
       <c r="I4" s="1">
         <f>D4*B4</f>
-        <v>3816</v>
+        <v>3875</v>
       </c>
       <c r="J4" s="1">
         <f>C4*D4</f>
-        <v>1608</v>
+        <v>1550</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>164.29391217564873</v>
+        <f>$G$15+$G$18*C4+$G$20*D4</f>
+        <v>146.89830339321358</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>-5.2939121756487282</v>
+        <f t="shared" ref="N4:N10" si="0">B4-M4</f>
+        <v>8.1016966067864189</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="2"/>
-        <v>28.025506123481851</v>
+        <f t="shared" ref="O4:O10" si="1">N4^2</f>
+        <v>65.63748790841457</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="3"/>
-        <v>506.25</v>
+        <f t="shared" ref="P4:P10" si="2">(B4-$B$12)^2</f>
+        <v>702.25</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="4"/>
-        <v>296.04945821928908</v>
+        <f t="shared" ref="Q4:Q10" si="3">(M4-$B$12)^2</f>
+        <v>1197.2774080680947</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <f>POWER(C5,2)</f>
-        <v>4900</v>
+        <v>4489</v>
       </c>
       <c r="G5" s="1">
         <f>POWER(D5,2)</f>
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="H5" s="1">
         <f>C5*B5</f>
-        <v>12530</v>
+        <v>10653</v>
       </c>
       <c r="I5" s="1">
         <f>D5*B5</f>
-        <v>3580</v>
+        <v>3816</v>
       </c>
       <c r="J5" s="1">
         <f>C5*D5</f>
-        <v>1400</v>
+        <v>1608</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
+        <f>$G$15+$G$18*C5+$G$20*D5</f>
+        <v>164.29391217564873</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>180.36216455976935</v>
-      </c>
-      <c r="N5" s="1">
+        <v>-5.2939121756487282</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>-1.3621645597693544</v>
-      </c>
-      <c r="O5" s="1">
+        <v>28.025506123481851</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="2"/>
-        <v>1.8554922878916389</v>
-      </c>
-      <c r="P5" s="1">
+        <v>506.25</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2946694890448671</v>
+        <v>296.04945821928908</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <f>POWER(C6,2)</f>
-        <v>5041</v>
+        <v>4900</v>
       </c>
       <c r="G6" s="1">
         <f>POWER(D6,2)</f>
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="H6" s="1">
         <f>C6*B6</f>
-        <v>13632</v>
+        <v>12530</v>
       </c>
       <c r="I6" s="1">
         <f>D6*B6</f>
-        <v>2880</v>
+        <v>3580</v>
       </c>
       <c r="J6" s="1">
         <f>C6*D6</f>
-        <v>1065</v>
+        <v>1400</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
+        <f>$G$15+$G$18*C6+$G$20*D6</f>
+        <v>180.36216455976935</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>191.79077400754048</v>
-      </c>
-      <c r="N6" s="1">
+        <v>-1.3621645597693544</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
-        <v>0.20922599245952256</v>
-      </c>
-      <c r="O6" s="1">
+        <v>1.8554922878916389</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>4.3775515920672192E-2</v>
-      </c>
-      <c r="P6" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="3"/>
-        <v>110.25</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="4"/>
-        <v>105.9000296742707</v>
+        <v>1.2946694890448671</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <f>POWER(C7,2)</f>
-        <v>5184</v>
+        <v>5041</v>
       </c>
       <c r="G7" s="1">
         <f>POWER(D7,2)</f>
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="H7" s="1">
         <f>C7*B7</f>
-        <v>14400</v>
+        <v>13632</v>
       </c>
       <c r="I7" s="1">
         <f>D7*B7</f>
-        <v>2800</v>
+        <v>2880</v>
       </c>
       <c r="J7" s="1">
         <f>C7*D7</f>
-        <v>1008</v>
+        <v>1065</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
+        <f>$G$15+$G$18*C7+$G$20*D7</f>
+        <v>191.79077400754048</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>196.59481037924155</v>
-      </c>
-      <c r="N7" s="1">
+        <v>0.20922599245952256</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
-        <v>3.4051896207584491</v>
-      </c>
-      <c r="O7" s="1">
+        <v>4.3775515920672192E-2</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="2"/>
-        <v>11.595316353321071</v>
-      </c>
-      <c r="P7" s="1">
+        <v>110.25</v>
+      </c>
+      <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>342.25</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="4"/>
-        <v>227.85330038525845</v>
+        <v>105.9000296742707</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
         <v>14</v>
@@ -1095,7 +1099,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <f>POWER(C8,2)</f>
-        <v>5625</v>
+        <v>5184</v>
       </c>
       <c r="G8" s="1">
         <f>POWER(D8,2)</f>
@@ -1103,203 +1107,222 @@
       </c>
       <c r="H8" s="1">
         <f>C8*B8</f>
-        <v>15900</v>
+        <v>14400</v>
       </c>
       <c r="I8" s="1">
         <f>D8*B8</f>
-        <v>2968</v>
+        <v>2800</v>
       </c>
       <c r="J8" s="1">
         <f>C8*D8</f>
-        <v>1050</v>
+        <v>1008</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
+        <f>$G$15+$G$18*C8+$G$20*D8</f>
+        <v>196.59481037924155</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>206.0384896872921</v>
-      </c>
-      <c r="N8" s="1">
+        <v>3.4051896207584491</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
-        <v>5.961510312707901</v>
-      </c>
-      <c r="O8" s="1">
+        <v>11.595316353321071</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="2"/>
-        <v>35.539605208522659</v>
-      </c>
-      <c r="P8" s="1">
+        <v>342.25</v>
+      </c>
+      <c r="Q8" s="1">
         <f t="shared" si="3"/>
-        <v>930.25</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>602.13747613334067</v>
+        <v>227.85330038525845</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <f>POWER(C9,2)</f>
-        <v>6084</v>
+        <v>5625</v>
       </c>
       <c r="G9" s="1">
         <f>POWER(D9,2)</f>
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="H9" s="1">
         <f>C9*B9</f>
-        <v>16770</v>
+        <v>15900</v>
       </c>
       <c r="I9" s="1">
         <f>D9*B9</f>
-        <v>2365</v>
+        <v>2968</v>
       </c>
       <c r="J9" s="1">
         <f>C9*D9</f>
-        <v>858</v>
+        <v>1050</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
+        <f>$G$15+$G$18*C9+$G$20*D9</f>
+        <v>206.0384896872921</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>220.45059880239523</v>
-      </c>
-      <c r="N9" s="1">
+        <v>5.961510312707901</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="1"/>
-        <v>-5.4505988023952341</v>
-      </c>
-      <c r="O9" s="1">
+        <v>35.539605208522659</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="2"/>
-        <v>29.709027304672361</v>
-      </c>
-      <c r="P9" s="1">
+        <v>930.25</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="3"/>
-        <v>1122.25</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="4"/>
-        <v>1517.1491470651531</v>
+        <v>602.13747613334067</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <f>SUM(B2:B9)</f>
-        <v>1452</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ref="C10:F10" si="5">SUM(C2:C9)</f>
-        <v>555</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="5"/>
-        <v>145</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>215</v>
+      </c>
+      <c r="C10" s="1">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="2">
-        <f t="shared" si="5"/>
-        <v>38767</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" ref="G10" si="6">SUM(G2:G9)</f>
-        <v>2823</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" ref="H10" si="7">SUM(H2:H9)</f>
-        <v>101895</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" ref="I10:J10" si="8">SUM(I2:I9)</f>
-        <v>25364</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="8"/>
-        <v>9859</v>
+      <c r="F10" s="1">
+        <f>POWER(C10,2)</f>
+        <v>6084</v>
+      </c>
+      <c r="G10" s="1">
+        <f>POWER(D10,2)</f>
+        <v>121</v>
+      </c>
+      <c r="H10" s="1">
+        <f>C10*B10</f>
+        <v>16770</v>
+      </c>
+      <c r="I10" s="1">
+        <f>D10*B10</f>
+        <v>2365</v>
+      </c>
+      <c r="J10" s="1">
+        <f>C10*D10</f>
+        <v>858</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="2">
-        <f t="shared" ref="P10:Q10" si="9">SUM(P2:P9)</f>
-        <v>5442</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="9"/>
-        <v>5238.5583388778014</v>
+      <c r="M10" s="1">
+        <f>$G$15+$G$18*C10+$G$20*D10</f>
+        <v>220.45059880239523</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.4505988023952341</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>29.709027304672361</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="2"/>
+        <v>1122.25</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="3"/>
+        <v>1517.1491470651531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <f>AVERAGE(B2:B9)</f>
-        <v>181.5</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>69.375</v>
-      </c>
-      <c r="D11" s="1">
-        <f>AVERAGE(D2:D9)</f>
-        <v>18.125</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B3:B10)</f>
+        <v>1452</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:F11" si="4">SUM(C3:C10)</f>
+        <v>555</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>145</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
+        <v>38767</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11" si="5">SUM(G3:G10)</f>
+        <v>2823</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11" si="6">SUM(H3:H10)</f>
+        <v>101895</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ref="I11:J11" si="7">SUM(I3:I10)</f>
+        <v>25364</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="7"/>
+        <v>9859</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="2">
+        <f t="shared" ref="P11:Q11" si="8">SUM(P3:P10)</f>
+        <v>5442</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="8"/>
+        <v>5238.5583388778014</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <f>AVERAGE(B3:B10)</f>
+        <v>181.5</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C3:C10)</f>
+        <v>69.375</v>
+      </c>
+      <c r="D12" s="1">
+        <f>AVERAGE(D3:D10)</f>
+        <v>18.125</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <f>F10-POWER(C10,2)/$K$2</f>
-        <v>263.875</v>
-      </c>
-      <c r="G12" s="1">
-        <f>G10-POWER(D10,2)/$K$2</f>
-        <v>194.875</v>
-      </c>
-      <c r="H12" s="1">
-        <f>H10-(C10*$B$10)/K2</f>
-        <v>1162.5</v>
-      </c>
-      <c r="I12" s="1">
-        <f>I10-(D10*$B$10)/$K$2</f>
-        <v>-953.5</v>
-      </c>
-      <c r="J12" s="1">
-        <f>J10-(C10*D10)/K2</f>
-        <v>-200.375</v>
-      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1309,113 +1332,155 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="F13" s="1">
+        <f>F11-POWER(C11,2)/$K$3</f>
+        <v>263.875</v>
+      </c>
+      <c r="G13" s="1">
+        <f>G11-POWER(D11,2)/$K$3</f>
+        <v>194.875</v>
+      </c>
+      <c r="H13" s="1">
+        <f>H11-(C11*$B$11)/K3</f>
+        <v>1162.5</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I11-(D11*$B$11)/$K$3</f>
+        <v>-953.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J11-(C11*D11)/K3</f>
+        <v>-200.375</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="18"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="15">
-        <f>B11-B18*C11-B20*D11</f>
-        <v>-6.8674872477267677</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
+      <c r="F15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="19">
+        <f>B12-G18*C12-G20*D12</f>
+        <v>-6.8674872477267677</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="20">
+        <f>Q11/P11</f>
+        <v>0.96261637980113957</v>
+      </c>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="16">
-        <f>F12*G12-POWER(J12,2)</f>
-        <v>11272.5</v>
-      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <f>G12*H12-J12*I12</f>
-        <v>35484.625</v>
-      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <f>F13*G13-POWER(J13,2)</f>
+        <v>11272.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="15">
-        <f>B17/$B$16</f>
-        <v>3.147893102683522</v>
-      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <f>G13*H13-J13*I13</f>
+        <v>35484.625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <f>F12*I12-(J12*H12)</f>
-        <v>-18668.875</v>
-      </c>
+      <c r="F18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="19">
+        <f>G17/$G$16</f>
+        <v>3.147893102683522</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="15">
-        <f>B19/$B$16</f>
-        <v>-1.6561432690175206</v>
-      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <f>F13*I13-(J13*H13)</f>
+        <v>-18668.875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="19">
+        <f>G19/$G$16</f>
+        <v>-1.6561432690175206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1425,7 +1490,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -1450,15 +1515,15 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0.98113015436339501</v>
@@ -1467,7 +1532,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0.96261637980113923</v>
@@ -1476,7 +1541,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0.94766293172159488</v>
@@ -1485,7 +1550,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>6.3787406456478539</v>
@@ -1493,10 +1558,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9">
         <v>8</v>
       </c>
       <c r="J8" s="1"/>
@@ -1506,30 +1571,30 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1549,7 +1614,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1562,52 +1627,52 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>5442</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="13">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12">
         <v>-6.8674872477267002</v>
       </c>
       <c r="C17">
@@ -1634,9 +1699,9 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="13">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12">
         <v>3.1478931026835211</v>
       </c>
       <c r="C18">
@@ -1662,31 +1727,31 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="13">
         <v>-1.6561432690175213</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>0.9759418588878106</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>-1.6969691933337836</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.15046353543016708</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>-4.1648816841116671</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.85259514607662457</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>-4.1648816841116671</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>0.85259514607662457</v>
       </c>
     </row>
@@ -1713,26 +1778,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>22</v>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1820,32 +1885,32 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <f>AVERAGE(A2:A4)</f>
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f>AVERAGE(B2:B4)</f>
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <f>POWER(SUM(F2:F4),2)</f>
         <v>3025</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
         <v>50</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>SUM(H2:H4)</f>
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <f>F5/(G5*H5)</f>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8BCF78-57B5-45D1-BAE5-92C94FDB94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA79B1-1705-4322-8623-E2E647775328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2244" yWindow="1224" windowWidth="21048" windowHeight="14076" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>y</t>
   </si>
@@ -233,6 +233,23 @@
   <si>
     <t>t2`</t>
   </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +260,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,13 +284,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,16 +412,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,25 +430,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,7 +766,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,74 +783,73 @@
     <col min="10" max="10" width="7.5546875" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="F1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="M1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="M1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1381,28 +1427,28 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <f>B12-G18*C12-G20*D12</f>
         <v>-6.8674872477267677</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="18">
         <f>Q11/P11</f>
         <v>0.96261637980113957</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
@@ -1432,10 +1478,10 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <f>G17/$G$16</f>
         <v>3.147893102683522</v>
       </c>
@@ -1456,10 +1502,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <f>G19/$G$16</f>
         <v>-1.6561432690175206</v>
       </c>
@@ -1515,10 +1561,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1558,10 +1604,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>8</v>
       </c>
       <c r="J8" s="1"/>
@@ -1575,20 +1621,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1627,44 +1673,44 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>7</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>5442</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1672,7 +1718,7 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>-6.8674872477267002</v>
       </c>
       <c r="C17">
@@ -1701,7 +1747,7 @@
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="13">
         <v>3.1478931026835211</v>
       </c>
       <c r="C18">
@@ -1727,31 +1773,31 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="14">
         <v>-1.6561432690175213</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>0.9759418588878106</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>-1.6969691933337836</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>0.15046353543016708</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>-4.1648816841116671</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>0.85259514607662457</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="10">
         <v>-4.1648816841116671</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>0.85259514607662457</v>
       </c>
     </row>
@@ -1778,25 +1824,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1885,25 +1931,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f>AVERAGE(A2:A4)</f>
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <f>AVERAGE(B2:B4)</f>
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <f>POWER(SUM(F2:F4),2)</f>
         <v>3025</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f>SUM(G2:G4)</f>
         <v>50</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <f>SUM(H2:H4)</f>
         <v>62</v>
       </c>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA79B1-1705-4322-8623-E2E647775328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463671E-D890-4F92-B1D8-B2FE37CEEBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2244" yWindow="1224" windowWidth="21048" windowHeight="14076" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
@@ -255,10 +255,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -302,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +335,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -435,9 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +463,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62D63D9-D315-450E-A6EF-C110D072CC47}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,26 +807,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="M1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -819,19 +838,19 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -891,7 +910,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <f>$G$15+$G$18*C3+$G$20*D3</f>
+        <f>$G$20+$G$17*C3+$G$19*D3</f>
         <v>145.57094699489909</v>
       </c>
       <c r="N3" s="1">
@@ -946,7 +965,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <f>$G$15+$G$18*C4+$G$20*D4</f>
+        <f>$G$20+$G$17*C4+$G$19*D4</f>
         <v>146.89830339321358</v>
       </c>
       <c r="N4" s="1">
@@ -1001,7 +1020,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <f>$G$15+$G$18*C5+$G$20*D5</f>
+        <f>$G$20+$G$17*C5+$G$19*D5</f>
         <v>164.29391217564873</v>
       </c>
       <c r="N5" s="1">
@@ -1056,7 +1075,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
-        <f>$G$15+$G$18*C6+$G$20*D6</f>
+        <f>$G$20+$G$17*C6+$G$19*D6</f>
         <v>180.36216455976935</v>
       </c>
       <c r="N6" s="1">
@@ -1111,7 +1130,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <f>$G$15+$G$18*C7+$G$20*D7</f>
+        <f>$G$20+$G$17*C7+$G$19*D7</f>
         <v>191.79077400754048</v>
       </c>
       <c r="N7" s="1">
@@ -1166,7 +1185,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <f>$G$15+$G$18*C8+$G$20*D8</f>
+        <f>$G$20+$G$17*C8+$G$19*D8</f>
         <v>196.59481037924155</v>
       </c>
       <c r="N8" s="1">
@@ -1221,7 +1240,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <f>$G$15+$G$18*C9+$G$20*D9</f>
+        <f>$G$20+$G$17*C9+$G$19*D9</f>
         <v>206.0384896872921</v>
       </c>
       <c r="N9" s="1">
@@ -1276,7 +1295,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <f>$G$15+$G$18*C10+$G$20*D10</f>
+        <f>$G$20+$G$17*C10+$G$19*D10</f>
         <v>220.45059880239523</v>
       </c>
       <c r="N10" s="1">
@@ -1297,18 +1316,18 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="24">
         <f>SUM(B3:B10)</f>
         <v>1452</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="24">
         <f t="shared" ref="C11:F11" si="4">SUM(C3:C10)</f>
         <v>555</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="24">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
@@ -1348,18 +1367,18 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="25">
         <f>AVERAGE(B3:B10)</f>
         <v>181.5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="25">
         <f>AVERAGE(C3:C10)</f>
         <v>69.375</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="25">
         <f>AVERAGE(D3:D10)</f>
         <v>18.125</v>
       </c>
@@ -1414,112 +1433,95 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="17">
-        <f>B12-G18*C12-G20*D12</f>
-        <v>-6.8674872477267677</v>
-      </c>
-      <c r="M15" s="17" t="s">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <f>F13*G13-POWER(J13,2)</f>
+        <v>11272.5</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <f>Q11/P11</f>
         <v>0.96261637980113957</v>
       </c>
-      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G16">
-        <f>F13*G13-POWER(J13,2)</f>
-        <v>11272.5</v>
+        <f>G13*H13-J13*I13</f>
+        <v>35484.625</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <f>G13*H13-J13*I13</f>
-        <v>35484.625</v>
+      <c r="F17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="16">
+        <f>G16/$G$15</f>
+        <v>3.147893102683522</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="17">
-        <f>G17/$G$16</f>
-        <v>3.147893102683522</v>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <f>F13*I13-(J13*H13)</f>
+        <v>-18668.875</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <f>F13*I13-(J13*H13)</f>
-        <v>-18668.875</v>
+      <c r="F19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="16">
+        <f>G18/$G$15</f>
+        <v>-1.6561432690175206</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="17">
-        <f>G19/$G$16</f>
-        <v>-1.6561432690175206</v>
+      <c r="F20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="16">
+        <f>B12-G17*C12-G19*D12</f>
+        <v>-6.8674872477267677</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463671E-D890-4F92-B1D8-B2FE37CEEBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5193A5-2641-46EA-AA3F-DA43F87964D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="1224" windowWidth="21048" windowHeight="14076" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="9096" yWindow="2364" windowWidth="21048" windowHeight="12732" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>y</t>
   </si>
@@ -220,18 +220,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t1`</t>
-  </si>
-  <si>
-    <t>t2`</t>
   </si>
   <si>
     <r>
@@ -249,6 +237,12 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>x1`</t>
+  </si>
+  <si>
+    <t>x2`</t>
   </si>
 </sst>
 </file>
@@ -785,7 +779,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,7 +815,7 @@
       <c r="J1" s="19"/>
       <c r="K1" s="20"/>
       <c r="M1" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -1462,10 +1456,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
-        <f>G13*H13-J13*I13</f>
+        <f>G13*H13-I13*J13</f>
         <v>35484.625</v>
       </c>
     </row>
@@ -1474,7 +1468,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="16" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G17" s="16">
         <f>G16/$G$15</f>
@@ -1486,10 +1480,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18">
-        <f>F13*I13-(J13*H13)</f>
+        <f>F13*I13-H13*J13</f>
         <v>-18668.875</v>
       </c>
     </row>
@@ -1498,7 +1492,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G19" s="16">
         <f>G18/$G$15</f>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5193A5-2641-46EA-AA3F-DA43F87964D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C6006A-A36C-4E26-A3ED-5B864CFA9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9096" yWindow="2364" windowWidth="21048" windowHeight="12732" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="15204" yWindow="1380" windowWidth="16440" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,10 +466,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -778,20 +784,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62D63D9-D315-450E-A6EF-C110D072CC47}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -801,26 +806,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="M1" s="18" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="M1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -832,19 +837,19 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -879,19 +884,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
-        <f>POWER(C3,2)</f>
+        <f t="shared" ref="F3:G10" si="0">POWER(C3,2)</f>
         <v>3600</v>
       </c>
       <c r="G3" s="1">
-        <f>POWER(D3,2)</f>
+        <f t="shared" si="0"/>
         <v>484</v>
       </c>
       <c r="H3" s="1">
-        <f>C3*B3</f>
+        <f t="shared" ref="H3:H10" si="1">C3*B3</f>
         <v>8400</v>
       </c>
       <c r="I3" s="1">
-        <f>D3*B3</f>
+        <f t="shared" ref="I3:I10" si="2">D3*B3</f>
         <v>3080</v>
       </c>
       <c r="J3" s="1">
@@ -904,7 +909,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <f>$G$20+$G$17*C3+$G$19*D3</f>
+        <f t="shared" ref="M3:M10" si="3">$G$20+$G$17*C3+$G$19*D3</f>
         <v>145.57094699489909</v>
       </c>
       <c r="N3" s="1">
@@ -937,45 +942,45 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <f>POWER(C4,2)</f>
+        <f t="shared" si="0"/>
         <v>3844</v>
       </c>
       <c r="G4" s="1">
-        <f>POWER(D4,2)</f>
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="H4" s="1">
-        <f>C4*B4</f>
+        <f t="shared" si="1"/>
         <v>9610</v>
       </c>
       <c r="I4" s="1">
-        <f>D4*B4</f>
+        <f t="shared" si="2"/>
         <v>3875</v>
       </c>
       <c r="J4" s="1">
-        <f>C4*D4</f>
+        <f t="shared" ref="J3:J10" si="4">C4*D4</f>
         <v>1550</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <f>$G$20+$G$17*C4+$G$19*D4</f>
+        <f t="shared" si="3"/>
         <v>146.89830339321358</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N10" si="0">B4-M4</f>
+        <f t="shared" ref="N4:N10" si="5">B4-M4</f>
         <v>8.1016966067864189</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O10" si="1">N4^2</f>
+        <f t="shared" ref="O4:O10" si="6">N4^2</f>
         <v>65.63748790841457</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P10" si="2">(B4-$B$12)^2</f>
+        <f t="shared" ref="P4:P10" si="7">(B4-$B$12)^2</f>
         <v>702.25</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q10" si="3">(M4-$B$12)^2</f>
+        <f t="shared" ref="Q4:Q10" si="8">(M4-$B$12)^2</f>
         <v>1197.2774080680947</v>
       </c>
     </row>
@@ -992,45 +997,45 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <f>POWER(C5,2)</f>
+        <f t="shared" si="0"/>
         <v>4489</v>
       </c>
       <c r="G5" s="1">
-        <f>POWER(D5,2)</f>
+        <f t="shared" si="0"/>
         <v>576</v>
       </c>
       <c r="H5" s="1">
-        <f>C5*B5</f>
+        <f t="shared" si="1"/>
         <v>10653</v>
       </c>
       <c r="I5" s="1">
-        <f>D5*B5</f>
+        <f t="shared" si="2"/>
         <v>3816</v>
       </c>
       <c r="J5" s="1">
-        <f>C5*D5</f>
+        <f t="shared" si="4"/>
         <v>1608</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <f>$G$20+$G$17*C5+$G$19*D5</f>
+        <f t="shared" si="3"/>
         <v>164.29391217564873</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-5.2939121756487282</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.025506123481851</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>506.25</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>296.04945821928908</v>
       </c>
     </row>
@@ -1047,45 +1052,45 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <f>POWER(C6,2)</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="G6" s="1">
-        <f>POWER(D6,2)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="H6" s="1">
-        <f>C6*B6</f>
+        <f t="shared" si="1"/>
         <v>12530</v>
       </c>
       <c r="I6" s="1">
-        <f>D6*B6</f>
+        <f t="shared" si="2"/>
         <v>3580</v>
       </c>
       <c r="J6" s="1">
-        <f>C6*D6</f>
+        <f t="shared" si="4"/>
         <v>1400</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
-        <f>$G$20+$G$17*C6+$G$19*D6</f>
+        <f t="shared" si="3"/>
         <v>180.36216455976935</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.3621645597693544</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8554922878916389</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.2946694890448671</v>
       </c>
     </row>
@@ -1102,45 +1107,45 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <f>POWER(C7,2)</f>
+        <f t="shared" si="0"/>
         <v>5041</v>
       </c>
       <c r="G7" s="1">
-        <f>POWER(D7,2)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="H7" s="1">
-        <f>C7*B7</f>
+        <f t="shared" si="1"/>
         <v>13632</v>
       </c>
       <c r="I7" s="1">
-        <f>D7*B7</f>
+        <f t="shared" si="2"/>
         <v>2880</v>
       </c>
       <c r="J7" s="1">
-        <f>C7*D7</f>
+        <f t="shared" si="4"/>
         <v>1065</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <f>$G$20+$G$17*C7+$G$19*D7</f>
+        <f t="shared" si="3"/>
         <v>191.79077400754048</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.20922599245952256</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.3775515920672192E-2</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>110.25</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>105.9000296742707</v>
       </c>
     </row>
@@ -1157,45 +1162,45 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f>POWER(C8,2)</f>
+        <f t="shared" si="0"/>
         <v>5184</v>
       </c>
       <c r="G8" s="1">
-        <f>POWER(D8,2)</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="H8" s="1">
-        <f>C8*B8</f>
+        <f t="shared" si="1"/>
         <v>14400</v>
       </c>
       <c r="I8" s="1">
-        <f>D8*B8</f>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="J8" s="1">
-        <f>C8*D8</f>
+        <f t="shared" si="4"/>
         <v>1008</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <f>$G$20+$G$17*C8+$G$19*D8</f>
+        <f t="shared" si="3"/>
         <v>196.59481037924155</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.4051896207584491</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11.595316353321071</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>342.25</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>227.85330038525845</v>
       </c>
     </row>
@@ -1212,45 +1217,45 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <f>POWER(C9,2)</f>
+        <f t="shared" si="0"/>
         <v>5625</v>
       </c>
       <c r="G9" s="1">
-        <f>POWER(D9,2)</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="H9" s="1">
-        <f>C9*B9</f>
+        <f t="shared" si="1"/>
         <v>15900</v>
       </c>
       <c r="I9" s="1">
-        <f>D9*B9</f>
+        <f t="shared" si="2"/>
         <v>2968</v>
       </c>
       <c r="J9" s="1">
-        <f>C9*D9</f>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <f>$G$20+$G$17*C9+$G$19*D9</f>
+        <f t="shared" si="3"/>
         <v>206.0384896872921</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.961510312707901</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35.539605208522659</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>930.25</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>602.13747613334067</v>
       </c>
     </row>
@@ -1267,83 +1272,83 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <f>POWER(C10,2)</f>
+        <f t="shared" si="0"/>
         <v>6084</v>
       </c>
       <c r="G10" s="1">
-        <f>POWER(D10,2)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="H10" s="1">
-        <f>C10*B10</f>
+        <f t="shared" si="1"/>
         <v>16770</v>
       </c>
       <c r="I10" s="1">
-        <f>D10*B10</f>
+        <f t="shared" si="2"/>
         <v>2365</v>
       </c>
       <c r="J10" s="1">
-        <f>C10*D10</f>
+        <f t="shared" si="4"/>
         <v>858</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <f>$G$20+$G$17*C10+$G$19*D10</f>
+        <f t="shared" si="3"/>
         <v>220.45059880239523</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-5.4505988023952341</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29.709027304672361</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1122.25</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1517.1491470651531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="2">
         <f>SUM(B3:B10)</f>
         <v>1452</v>
       </c>
-      <c r="C11" s="24">
-        <f t="shared" ref="C11:F11" si="4">SUM(C3:C10)</f>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:F11" si="9">SUM(C3:C10)</f>
         <v>555</v>
       </c>
-      <c r="D11" s="24">
-        <f t="shared" si="4"/>
+      <c r="D11" s="2">
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <f t="shared" si="4"/>
+      <c r="F11" s="24">
+        <f t="shared" si="9"/>
         <v>38767</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" ref="G11" si="5">SUM(G3:G10)</f>
+      <c r="G11" s="24">
+        <f t="shared" ref="G11" si="10">SUM(G3:G10)</f>
         <v>2823</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" ref="H11" si="6">SUM(H3:H10)</f>
+      <c r="H11" s="24">
+        <f t="shared" ref="H11" si="11">SUM(H3:H10)</f>
         <v>101895</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" ref="I11:J11" si="7">SUM(I3:I10)</f>
+      <c r="I11" s="24">
+        <f t="shared" ref="I11:J11" si="12">SUM(I3:I10)</f>
         <v>25364</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="7"/>
+      <c r="J11" s="24">
+        <f t="shared" si="12"/>
         <v>9859</v>
       </c>
       <c r="K11" s="1"/>
@@ -1352,27 +1357,27 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="2">
-        <f t="shared" ref="P11:Q11" si="8">SUM(P3:P10)</f>
+        <f t="shared" ref="P11:Q11" si="13">SUM(P3:P10)</f>
         <v>5442</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5238.5583388778014</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="1">
         <f>AVERAGE(B3:B10)</f>
         <v>181.5</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="1">
         <f>AVERAGE(C3:C10)</f>
         <v>69.375</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="1">
         <f>AVERAGE(D3:D10)</f>
         <v>18.125</v>
       </c>
@@ -1398,23 +1403,23 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13" s="25">
         <f>F11-POWER(C11,2)/$K$3</f>
         <v>263.875</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="25">
         <f>G11-POWER(D11,2)/$K$3</f>
         <v>194.875</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="25">
         <f>H11-(C11*$B$11)/K3</f>
         <v>1162.5</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="25">
         <f>I11-(D11*$B$11)/$K$3</f>
         <v>-953.5</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="25">
         <f>J11-(C11*D11)/K3</f>
         <v>-200.375</v>
       </c>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C6006A-A36C-4E26-A3ED-5B864CFA9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CA33C-B398-421A-914F-08E49022D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15204" yWindow="1380" windowWidth="16440" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="5988" yWindow="792" windowWidth="18768" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -466,8 +466,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,8 +797,8 @@
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -1323,11 +1323,11 @@
         <v>1452</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:F11" si="9">SUM(C3:C10)</f>
+        <f>SUM(C3:C10)</f>
         <v>555</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C11:F11" si="9">SUM(D3:D10)</f>
         <v>145</v>
       </c>
       <c r="E11" s="1"/>
@@ -1435,6 +1435,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
+      <c r="J14">
+        <f>C11*D11</f>
+        <v>80475</v>
+      </c>
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
@@ -1447,6 +1451,10 @@
       <c r="G15">
         <f>F13*G13-POWER(J13,2)</f>
         <v>11272.5</v>
+      </c>
+      <c r="J15">
+        <f>J11-(C11*D11)</f>
+        <v>-70616</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>18</v>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CA33C-B398-421A-914F-08E49022D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8404D0-CBEC-4708-AA96-AC524FCE3A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="792" windowWidth="18768" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="6420" yWindow="2520" windowWidth="18768" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -457,6 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,8 +467,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +784,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,26 +805,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="M1" s="21" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -958,7 +957,7 @@
         <v>3875</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J3:J10" si="4">C4*D4</f>
+        <f t="shared" ref="J4:J10" si="4">C4*D4</f>
         <v>1550</v>
       </c>
       <c r="K4" s="1"/>
@@ -1327,27 +1326,27 @@
         <v>555</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="C11:F11" si="9">SUM(D3:D10)</f>
+        <f t="shared" ref="D11:F11" si="9">SUM(D3:D10)</f>
         <v>145</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="24">
+      <c r="F11" s="2">
         <f t="shared" si="9"/>
         <v>38767</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="2">
         <f t="shared" ref="G11" si="10">SUM(G3:G10)</f>
         <v>2823</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="2">
         <f t="shared" ref="H11" si="11">SUM(H3:H10)</f>
         <v>101895</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="2">
         <f t="shared" ref="I11:J11" si="12">SUM(I3:I10)</f>
         <v>25364</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="2">
         <f t="shared" si="12"/>
         <v>9859</v>
       </c>
@@ -1403,23 +1402,23 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
         <f>F11-POWER(C11,2)/$K$3</f>
         <v>263.875</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="21">
         <f>G11-POWER(D11,2)/$K$3</f>
         <v>194.875</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="21">
         <f>H11-(C11*$B$11)/K3</f>
         <v>1162.5</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="21">
         <f>I11-(D11*$B$11)/$K$3</f>
         <v>-953.5</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="21">
         <f>J11-(C11*D11)/K3</f>
         <v>-200.375</v>
       </c>
@@ -1435,10 +1434,6 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="J14">
-        <f>C11*D11</f>
-        <v>80475</v>
-      </c>
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
@@ -1451,10 +1446,6 @@
       <c r="G15">
         <f>F13*G13-POWER(J13,2)</f>
         <v>11272.5</v>
-      </c>
-      <c r="J15">
-        <f>J11-(C11*D11)</f>
-        <v>-70616</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>18</v>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8404D0-CBEC-4708-AA96-AC524FCE3A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73EB99-D8DA-46D6-A1F9-B6C36B20E2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2520" windowWidth="18768" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="9684" yWindow="2316" windowWidth="18768" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -467,6 +473,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +792,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,9 +803,9 @@
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -1462,8 +1470,20 @@
       <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="25">
         <f>G13*H13-I13*J13</f>
+        <v>35484.625</v>
+      </c>
+      <c r="H16" s="3">
+        <f>G13*H13</f>
+        <v>226542.1875</v>
+      </c>
+      <c r="I16">
+        <f>I13*J13</f>
+        <v>191057.5625</v>
+      </c>
+      <c r="J16" s="26">
+        <f>H16-I16</f>
         <v>35484.625</v>
       </c>
     </row>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73EB99-D8DA-46D6-A1F9-B6C36B20E2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54988F51-40D4-4C73-844B-DDFB4DE25642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9684" yWindow="2316" windowWidth="18768" windowHeight="10824" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="9636" yWindow="2316" windowWidth="18816" windowHeight="11292" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -249,9 +249,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -435,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -475,6 +476,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +794,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1489,7 @@
         <v>35484.625</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
@@ -1499,7 +1501,7 @@
         <v>3.147893102683522</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1511,7 +1513,7 @@
         <v>-18668.875</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1523,7 +1525,7 @@
         <v>-1.6561432690175206</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1534,8 +1536,20 @@
         <f>B12-G17*C12-G19*D12</f>
         <v>-6.8674872477267677</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>G17*C12</f>
+        <v>218.38508399866933</v>
+      </c>
+      <c r="I20">
+        <f>G19*D12</f>
+        <v>-30.017596750942563</v>
+      </c>
+      <c r="J20" s="27">
+        <f>B12-H20-I20</f>
+        <v>-6.8674872477267677</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54988F51-40D4-4C73-844B-DDFB4DE25642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C5FBDC-7A75-45A4-AE02-4A32FE3A9FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9636" yWindow="2316" windowWidth="18816" windowHeight="11292" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
@@ -794,7 +794,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C5FBDC-7A75-45A4-AE02-4A32FE3A9FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D21D0C-49DF-4E7C-8C8D-35CE56B0E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="2316" windowWidth="18816" windowHeight="11292" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="6804" yWindow="1752" windowWidth="19848" windowHeight="14496" activeTab="1" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
-    <sheet name="foo" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="foo" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>y</t>
   </si>
@@ -243,6 +244,27 @@
   </si>
   <si>
     <t>x2`</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x3^2</t>
+  </si>
+  <si>
+    <t>x4^2</t>
+  </si>
+  <si>
+    <t>x3*y</t>
+  </si>
+  <si>
+    <t>x4*y</t>
+  </si>
+  <si>
+    <t>x1*x2*x3*x4</t>
   </si>
 </sst>
 </file>
@@ -436,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -465,6 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,9 +499,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62D63D9-D315-450E-A6EF-C110D072CC47}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,26 +845,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="M1" s="22" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="M1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -1472,7 +1502,7 @@
       <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="22">
         <f>G13*H13-I13*J13</f>
         <v>35484.625</v>
       </c>
@@ -1484,7 +1514,7 @@
         <f>I13*J13</f>
         <v>191057.5625</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="23">
         <f>H16-I16</f>
         <v>35484.625</v>
       </c>
@@ -1544,7 +1574,7 @@
         <f>G19*D12</f>
         <v>-30.017596750942563</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="24">
         <f>B12-H20-I20</f>
         <v>-6.8674872477267677</v>
       </c>
@@ -1566,6 +1596,3112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ADF0C9-FD79-494B-94E7-E373E8264C07}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="28"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="28"/>
+    <col min="11" max="11" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="28"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="H1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="2:17" s="28" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C3" s="29">
+        <v>225</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.442</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0.67200000000000015</v>
+      </c>
+      <c r="F3" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H3" s="1">
+        <f>POWER(C3,2)</f>
+        <v>50625</v>
+      </c>
+      <c r="I3" s="1">
+        <f>POWER(D3,2)</f>
+        <v>0.19536400000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <f>POWER(E3,2)</f>
+        <v>0.45158400000000021</v>
+      </c>
+      <c r="K3" s="1">
+        <f>POWER(F3,2)</f>
+        <v>84.639999999999986</v>
+      </c>
+      <c r="L3" s="1">
+        <f>C3*$B3</f>
+        <v>1530</v>
+      </c>
+      <c r="M3" s="1">
+        <f>D3*$B3</f>
+        <v>3.0055999999999998</v>
+      </c>
+      <c r="N3" s="1">
+        <f>E3*$B3</f>
+        <v>4.5696000000000012</v>
+      </c>
+      <c r="O3" s="1">
+        <f>F3*$B3</f>
+        <v>62.559999999999995</v>
+      </c>
+      <c r="P3" s="1">
+        <f>PRODUCT(B3:F3)</f>
+        <v>4180.9098240000003</v>
+      </c>
+      <c r="Q3" s="31">
+        <f>ROWS(B3:B56)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="29">
+        <v>180</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F4" s="29">
+        <v>11.7</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H56" si="0">POWER(C4,2)</f>
+        <v>32400</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I56" si="1">POWER(D4,2)</f>
+        <v>0.18922500000000006</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:K56" si="2">POWER(E4,2)</f>
+        <v>0.63520900000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>136.88999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L56" si="3">C4*B4</f>
+        <v>1134</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M56" si="4">D4*$B4</f>
+        <v>2.7405000000000004</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N56" si="5">E4*$B4</f>
+        <v>5.0211000000000006</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O56" si="6">F4*$B4</f>
+        <v>73.709999999999994</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P56" si="7">PRODUCT(B4:F4)</f>
+        <v>4599.8799210000006</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="C5" s="29">
+        <v>190</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F5" s="29">
+        <v>15.8</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>36100</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20793600000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.579121</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>249.64000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>1216</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9184000000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8704000000000001</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="6"/>
+        <v>101.12</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="7"/>
+        <v>6667.1490048000005</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>180</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.65100000000000013</v>
+      </c>
+      <c r="F6" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17305600000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42380100000000015</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>1116</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5792000000000002</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0362000000000009</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="6"/>
+        <v>53.32</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>2599.1836416000006</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="C7" s="29">
+        <v>205</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="29">
+        <v>23.2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>42025</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.201601</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>538.24</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>1414.5</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0981000000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2100000000000009</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="6"/>
+        <v>160.08000000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="7"/>
+        <v>13261.107240000001</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="C8" s="29">
+        <v>225</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.43100000000000005</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.78</v>
+      </c>
+      <c r="F8" s="29">
+        <v>27.4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>50625</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18576100000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>750.75999999999988</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>1440</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7584000000000004</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9920000000000009</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="6"/>
+        <v>175.36</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="7"/>
+        <v>13264.318080000003</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="C9" s="29">
+        <v>185</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.48700000000000004</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F9" s="29">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>34225</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23716900000000005</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.594441</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>86.490000000000009</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>1165.5</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0681000000000003</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8573000000000004</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="6"/>
+        <v>58.59</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="7"/>
+        <v>4069.8515245500012</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C10" s="29">
+        <v>235</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="F10" s="29">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>55225</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21996100000000002</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56250000000000022</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>1598</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1892</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="5"/>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="6"/>
+        <v>108.8</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="7"/>
+        <v>8993.5440000000017</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="C11" s="29">
+        <v>235</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.81800000000000006</v>
+      </c>
+      <c r="F11" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>55225</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18922500000000006</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66912400000000005</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>22.090000000000003</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>1621.5</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0015000000000005</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>5.6442000000000005</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="6"/>
+        <v>32.43</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="7"/>
+        <v>2711.7982215000006</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="C12" s="29">
+        <v>210</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="F12" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>44100</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23040000000000005</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68062500000000015</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>156.25</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>1407</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5275000000000007</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="6"/>
+        <v>83.75</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="7"/>
+        <v>6964.6500000000005</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="C13" s="29">
+        <v>245</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.63200000000000012</v>
+      </c>
+      <c r="F13" s="29">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>60025</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26625599999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39942400000000017</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>404.01000000000005</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>1690.5</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5604000000000005</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3608000000000011</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="6"/>
+        <v>138.69000000000003</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="7"/>
+        <v>11080.975953600002</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="C14" s="29">
+        <v>245</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.75700000000000012</v>
+      </c>
+      <c r="F14" s="29">
+        <v>9.1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>60025</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24304899999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57304900000000014</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>82.809999999999988</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>1690.5</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4016999999999999</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2233000000000009</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="6"/>
+        <v>62.79</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="7"/>
+        <v>5741.1562435500009</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="C15" s="29">
+        <v>185</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.37400000000000005</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="F15" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>34225</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13987600000000003</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50268100000000016</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>65.61</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>1165.5</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3562000000000003</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>4.4667000000000003</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="6"/>
+        <v>51.029999999999994</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="7"/>
+        <v>2503.3128813000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>185</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.42400000000000004</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F16" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>34225</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17977600000000005</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61152400000000007</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>1128.5</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5864000000000003</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>4.7702</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="6"/>
+        <v>52.459999999999994</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="7"/>
+        <v>3217.9005968000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="C17" s="29">
+        <v>180</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.441</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F17" s="29">
+        <v>20.3</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19448100000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60062500000000008</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>412.09000000000003</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>1116</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7342</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8050000000000006</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="6"/>
+        <v>125.86000000000001</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="7"/>
+        <v>7742.8442700000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C18" s="29">
+        <v>220</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.503</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="F18" s="29">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>48400</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25300899999999998</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>1496</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4203999999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="5"/>
+        <v>5.984</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="7"/>
+        <v>16554.736000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="C19" s="29">
+        <v>194</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.503</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.83300000000000007</v>
+      </c>
+      <c r="F19" s="29">
+        <v>19.2</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>37636</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25300899999999998</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69388900000000009</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>368.64</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>1261</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2694999999999999</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4145000000000003</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="6"/>
+        <v>124.8</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="7"/>
+        <v>10144.4685888</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="C20" s="29">
+        <v>225</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.57100000000000006</v>
+      </c>
+      <c r="F20" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>50625</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18062500000000004</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32604100000000008</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>10.889999999999999</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>1710</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="4"/>
+        <v>3.23</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3395999999999999</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="6"/>
+        <v>25.08</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="7"/>
+        <v>1369.4150250000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="C21" s="29">
+        <v>210</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0.37100000000000005</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="F21" s="29">
+        <v>11.2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>44100</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13764100000000004</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66585600000000011</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>125.43999999999998</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>1323</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3373000000000004</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="5"/>
+        <v>5.1408000000000005</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="6"/>
+        <v>70.559999999999988</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="7"/>
+        <v>4485.8209536000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="C22" s="29">
+        <v>240</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.504</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.71400000000000008</v>
+      </c>
+      <c r="F22" s="29">
+        <v>10.5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25401600000000002</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50979600000000014</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>110.25</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>1704</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5783999999999998</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0693999999999999</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="6"/>
+        <v>74.55</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="7"/>
+        <v>6438.543552000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C23" s="29">
+        <v>225</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F23" s="29">
+        <v>10.1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>50625</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.585225</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>102.00999999999999</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>1530</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.72</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>5.202</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="6"/>
+        <v>68.679999999999993</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="7"/>
+        <v>4728.6179999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="C24" s="29">
+        <v>263</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.65500000000000014</v>
+      </c>
+      <c r="F24" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>69169</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23232400000000003</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42902500000000016</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>51.84</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>1919.8999999999999</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5186000000000002</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>4.7815000000000012</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="6"/>
+        <v>52.56</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="7"/>
+        <v>4364.1477288000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="C25" s="29">
+        <v>210</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0.24400000000000002</v>
+      </c>
+      <c r="F25" s="29">
+        <v>13.6</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>44100</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22562500000000002</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9536000000000013E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>184.95999999999998</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>1344</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0400000000000005</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5616000000000003</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="6"/>
+        <v>87.04</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="7"/>
+        <v>2118.4665600000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C26" s="29">
+        <v>235</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0.42800000000000005</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.72800000000000009</v>
+      </c>
+      <c r="F26" s="29">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>55225</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18318400000000004</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52998400000000012</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>1598</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9104000000000001</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9504000000000001</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="6"/>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="7"/>
+        <v>4481.2010880000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="C27" s="29">
+        <v>230</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.72100000000000009</v>
+      </c>
+      <c r="F27" s="29">
+        <v>24.6</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>52900</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31248100000000006</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51984100000000011</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>605.16000000000008</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="3"/>
+        <v>1656</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0248000000000008</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="5"/>
+        <v>5.1912000000000011</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="6"/>
+        <v>177.12</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="7"/>
+        <v>16418.841566400006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="C28" s="29">
+        <v>190</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.441</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0.75700000000000012</v>
+      </c>
+      <c r="F28" s="29">
+        <v>12.6</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>36100</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19448100000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57304900000000014</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>158.76</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="3"/>
+        <v>1216</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8224</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8448000000000011</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="6"/>
+        <v>80.64</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="7"/>
+        <v>5114.9169792000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="C29" s="29">
+        <v>220</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0.74700000000000011</v>
+      </c>
+      <c r="F29" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>48400</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.242064</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5580090000000002</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>31.359999999999996</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="3"/>
+        <v>1452</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2471999999999999</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9302000000000001</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>36.959999999999994</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="7"/>
+        <v>2988.4111488000008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C30" s="29">
+        <v>210</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0.7390000000000001</v>
+      </c>
+      <c r="F30" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>44100</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16160400000000003</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54612100000000019</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>75.689999999999984</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="3"/>
+        <v>1428</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7336</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0252000000000008</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="6"/>
+        <v>59.16</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="7"/>
+        <v>3690.7782408000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="C31" s="29">
+        <v>180</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.71300000000000008</v>
+      </c>
+      <c r="F31" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17222500000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50836900000000007</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>59.290000000000006</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5314999999999999</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3493000000000004</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>46.97</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="7"/>
+        <v>2501.6738670000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="C32" s="29">
+        <v>235</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.7420000000000001</v>
+      </c>
+      <c r="F32" s="29">
+        <v>24.1</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>55225</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.242064</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55056400000000016</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>580.81000000000006</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="3"/>
+        <v>1527.5</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>3.198</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>156.65</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="7"/>
+        <v>13439.009766000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="C33" s="29">
+        <v>185</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0.48400000000000004</v>
+      </c>
+      <c r="E33" s="29">
+        <v>0.8610000000000001</v>
+      </c>
+      <c r="F33" s="29">
+        <v>11.7</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>34225</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23425600000000005</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74132100000000012</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>136.88999999999999</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="3"/>
+        <v>1184</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0976000000000004</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5104000000000006</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>74.88</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="7"/>
+        <v>5772.7942272000009</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="29">
+        <v>6</v>
+      </c>
+      <c r="C34" s="29">
+        <v>175</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0.38700000000000007</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0.72100000000000009</v>
+      </c>
+      <c r="F34" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>30625</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14976900000000004</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51984100000000011</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>59.290000000000006</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3220000000000005</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3260000000000005</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="6"/>
+        <v>46.2</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="7"/>
+        <v>2255.9332950000007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="29">
+        <v>6</v>
+      </c>
+      <c r="C35" s="29">
+        <v>192</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.43600000000000005</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F35" s="29">
+        <v>9.6</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>36864</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19009600000000004</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>92.16</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="3"/>
+        <v>1152</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6160000000000005</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="5"/>
+        <v>4.71</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="6"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="7"/>
+        <v>3785.1217920000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="C36" s="29">
+        <v>263</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="E36" s="29">
+        <v>0.65500000000000014</v>
+      </c>
+      <c r="F36" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>69169</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23232400000000003</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42902500000000016</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>51.84</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="3"/>
+        <v>1919.8999999999999</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5186000000000002</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="5"/>
+        <v>4.7815000000000012</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="6"/>
+        <v>52.56</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="7"/>
+        <v>4364.1477288000006</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="C37" s="29">
+        <v>180</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.34</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="F37" s="29">
+        <v>12.3</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11560000000000002</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67404100000000011</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>151.29000000000002</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0080999999999998</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="6"/>
+        <v>75.03</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="7"/>
+        <v>3769.8973560000009</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="C38" s="29">
+        <v>240</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.72800000000000009</v>
+      </c>
+      <c r="F38" s="29">
+        <v>8.9</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26625599999999999</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52998400000000012</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="3"/>
+        <v>1608</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4572000000000003</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="5"/>
+        <v>4.877600000000001</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="6"/>
+        <v>59.63</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="7"/>
+        <v>5375.9736576000005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="C39" s="29">
+        <v>210</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.84600000000000009</v>
+      </c>
+      <c r="F39" s="29">
+        <v>13.6</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>44100</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22562500000000002</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71571600000000013</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>184.95999999999998</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="3"/>
+        <v>1344</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0400000000000005</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4144000000000005</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="6"/>
+        <v>87.04</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="7"/>
+        <v>7345.1750400000019</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="C40" s="29">
+        <v>160</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.41200000000000003</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.81300000000000006</v>
+      </c>
+      <c r="F40" s="29">
+        <v>11.2</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16974400000000003</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66096900000000014</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>125.43999999999998</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="3"/>
+        <v>928</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3896000000000002</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="5"/>
+        <v>4.7153999999999998</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="6"/>
+        <v>64.959999999999994</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="7"/>
+        <v>3481.3986816000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="C41" s="29">
+        <v>230</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="E41" s="29">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F41" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>52900</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16892100000000002</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35402499999999998</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="2"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="3"/>
+        <v>1587</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8359000000000005</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1055000000000001</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="6"/>
+        <v>19.32</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="7"/>
+        <v>1086.6601619999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="29">
+        <v>7</v>
+      </c>
+      <c r="C42" s="29">
+        <v>245</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="E42" s="29">
+        <v>0.57300000000000006</v>
+      </c>
+      <c r="F42" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>60025</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16564900000000002</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32832900000000009</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="2"/>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="3"/>
+        <v>1715</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="6"/>
+        <v>22.400000000000002</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="7"/>
+        <v>1279.8619680000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="C43" s="29">
+        <v>228</v>
+      </c>
+      <c r="D43" s="29">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E43" s="29">
+        <v>0.72600000000000009</v>
+      </c>
+      <c r="F43" s="29">
+        <v>9.4</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>51984</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19802500000000001</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5270760000000001</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="2"/>
+        <v>88.360000000000014</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="3"/>
+        <v>1664.3999999999999</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2484999999999999</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2998000000000003</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="6"/>
+        <v>68.62</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="7"/>
+        <v>5054.5464552000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="C44" s="29">
+        <v>155</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.70700000000000007</v>
+      </c>
+      <c r="F44" s="29">
+        <v>11.9</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>24025</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>8.468100000000002E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4998490000000001</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="2"/>
+        <v>141.61000000000001</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="3"/>
+        <v>914.5</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7169000000000003</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1713000000000005</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="6"/>
+        <v>70.210000000000008</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="7"/>
+        <v>2238.9431893500005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="C45" s="29">
+        <v>200</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E45" s="29">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F45" s="29">
+        <v>15.4</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.201601</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6464160000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="2"/>
+        <v>237.16000000000003</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="3"/>
+        <v>1240</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7838000000000003</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9848000000000008</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="6"/>
+        <v>95.48</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="7"/>
+        <v>6893.579616</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C46" s="29">
+        <v>235</v>
+      </c>
+      <c r="D46" s="29">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E46" s="29">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F46" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>55225</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29811600000000005</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61465600000000009</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="2"/>
+        <v>54.760000000000005</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="3"/>
+        <v>1598</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7128000000000001</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="5"/>
+        <v>5.3311999999999999</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="6"/>
+        <v>50.32</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="7"/>
+        <v>5061.942412800001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="29">
+        <v>7</v>
+      </c>
+      <c r="C47" s="29">
+        <v>235</v>
+      </c>
+      <c r="D47" s="29">
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="E47" s="29">
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F47" s="29">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>55225</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23040000000000005</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55353600000000014</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="2"/>
+        <v>357.20999999999992</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="3"/>
+        <v>1645</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2080000000000011</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="6"/>
+        <v>132.29999999999998</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="7"/>
+        <v>11103.039360000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="C48" s="29">
+        <v>105</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0.35900000000000004</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0.83900000000000008</v>
+      </c>
+      <c r="F48" s="29">
+        <v>7.9</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>11025</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12888100000000002</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70392100000000013</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="2"/>
+        <v>62.410000000000004</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="3"/>
+        <v>619.5</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1181000000000005</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9501000000000008</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="6"/>
+        <v>46.610000000000007</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="7"/>
+        <v>1474.0927540500004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="C49" s="29">
+        <v>180</v>
+      </c>
+      <c r="D49" s="29">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E49" s="29">
+        <v>0.79</v>
+      </c>
+      <c r="F49" s="29">
+        <v>12.2</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27878400000000003</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6241000000000001</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="2"/>
+        <v>148.83999999999997</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2208000000000001</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="5"/>
+        <v>4.819</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="6"/>
+        <v>74.419999999999987</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="7"/>
+        <v>5587.5726720000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="C50" s="29">
+        <v>185</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="E50" s="29">
+        <v>0.70100000000000007</v>
+      </c>
+      <c r="F50" s="29">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>34225</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12390400000000003</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49140100000000009</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="3"/>
+        <v>1054.5</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0064000000000002</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9957000000000007</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="6"/>
+        <v>62.7</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="7"/>
+        <v>2862.1998240000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="C51" s="29">
+        <v>245</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="E51" s="29">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F51" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>60025</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17139600000000002</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60528400000000004</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="2"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="3"/>
+        <v>1739.5</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9394</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5237999999999996</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="6"/>
+        <v>19.88</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="7"/>
+        <v>1568.7812951999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="C52" s="29">
+        <v>180</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E52" s="29">
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="F52" s="29">
+        <v>11.8</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18062500000000004</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76038400000000017</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="2"/>
+        <v>139.24</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="3"/>
+        <v>1044</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4650000000000003</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0576000000000008</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="6"/>
+        <v>68.44</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="7"/>
+        <v>4565.4955200000013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="C53" s="29">
+        <v>240</v>
+      </c>
+      <c r="D53" s="29">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E53" s="29">
+        <v>0.71300000000000008</v>
+      </c>
+      <c r="F53" s="29">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35880099999999998</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50836900000000007</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="2"/>
+        <v>292.41000000000003</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="3"/>
+        <v>1776</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4325999999999999</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2762000000000011</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="6"/>
+        <v>126.54000000000002</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="7"/>
+        <v>12970.461355200005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C54" s="29">
+        <v>225</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0.70100000000000007</v>
+      </c>
+      <c r="F54" s="29">
+        <v>11.6</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>50625</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23232400000000003</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49140100000000009</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="2"/>
+        <v>134.56</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="3"/>
+        <v>1530</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2776000000000001</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="5"/>
+        <v>4.7667999999999999</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="6"/>
+        <v>78.88</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="7"/>
+        <v>5996.7297360000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="C55" s="29">
+        <v>215</v>
+      </c>
+      <c r="D55" s="29">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0.7340000000000001</v>
+      </c>
+      <c r="F55" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>46225</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20884900000000001</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53875600000000012</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="2"/>
+        <v>33.64</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="3"/>
+        <v>1462</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1076000000000001</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="5"/>
+        <v>4.991200000000001</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="6"/>
+        <v>39.44</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="7"/>
+        <v>2844.3800648000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="29">
+        <v>7</v>
+      </c>
+      <c r="C56" s="29">
+        <v>230</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F56" s="29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>52900</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18922500000000006</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58369599999999999</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="2"/>
+        <v>68.890000000000015</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="3"/>
+        <v>1610</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="5"/>
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="6"/>
+        <v>58.100000000000009</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="7"/>
+        <v>4441.0594200000014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2">
+        <f>SUM(B3:B56)</f>
+        <v>355.70000000000005</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" ref="C57:F57" si="8">SUM(C3:C56)</f>
+        <v>11335</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="8"/>
+        <v>24.252000000000006</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="8"/>
+        <v>40.060000000000016</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="8"/>
+        <v>636.69999999999993</v>
+      </c>
+      <c r="H57" s="2">
+        <f>SUM(H3:H56)</f>
+        <v>2427847</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" ref="I57:O57" si="9">SUM(I3:I56)</f>
+        <v>11.06134</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="9"/>
+        <v>30.250134000000003</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="9"/>
+        <v>9351.6299999999974</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="9"/>
+        <v>75278.200000000012</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="9"/>
+        <v>160.43040000000002</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="9"/>
+        <v>263.24520000000007</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="9"/>
+        <v>4184.08</v>
+      </c>
+      <c r="P57" s="2">
+        <f>SUM(P3:P10)</f>
+        <v>57635.943235950013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1">
+        <f>AVERAGE(B3:B56)</f>
+        <v>6.5870370370370379</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:F58" si="10">AVERAGE(C3:C56)</f>
+        <v>209.90740740740742</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="10"/>
+        <v>0.44911111111111124</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="10"/>
+        <v>0.74185185185185221</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="10"/>
+        <v>11.790740740740739</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H59" s="21">
+        <f>H57-POWER(C57,2)/$Q$3</f>
+        <v>48546.537037036847</v>
+      </c>
+      <c r="I59" s="21">
+        <f>I57-POWER(D57,2)/$Q$3</f>
+        <v>0.16949733333332695</v>
+      </c>
+      <c r="J59" s="21">
+        <f>J57-POWER(E57,2)/$Q$3</f>
+        <v>0.53154881481479421</v>
+      </c>
+      <c r="K59" s="21">
+        <f>K57-POWER(F57,2)/$Q$3</f>
+        <v>1844.4653703703698</v>
+      </c>
+      <c r="L59" s="21">
+        <f>L57-(C57*$B$57)/$Q$3</f>
+        <v>614.13518518519413</v>
+      </c>
+      <c r="M59" s="21">
+        <f>M57-(D57*$B$57)/$Q$3</f>
+        <v>0.68157777777773276</v>
+      </c>
+      <c r="N59" s="21">
+        <f>N57-(E57*$B$57)/$Q$3</f>
+        <v>-0.6315037037037996</v>
+      </c>
+      <c r="O59" s="21">
+        <f>O57-(F57*$B$57)/$Q$3</f>
+        <v>-9.8864814814814963</v>
+      </c>
+      <c r="P59" s="21">
+        <f>P57-(E11*F11)/Q3</f>
+        <v>57635.872039653717</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A14CEF-A569-4280-BD2E-EB4482B32FEC}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -1840,7 +4976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8305634-3A76-4F1B-A6AF-7B4BA422C774}">
   <dimension ref="A1:H7"/>
   <sheetViews>

--- a/programs/frameworks/neural/data/scratch.xlsx
+++ b/programs/frameworks/neural/data/scratch.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848F072-E586-42C2-A1FF-6F4B3EE5EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8DAC9C-B828-44E2-AE60-F0141DCC0552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7848" yWindow="0" windowWidth="20016" windowHeight="16656" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
+    <workbookView xWindow="9228" yWindow="1896" windowWidth="20016" windowHeight="14196" xr2:uid="{6543E30F-7590-4F9D-A2A9-0844B913B9C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="complex" sheetId="6" r:id="rId1"/>
-    <sheet name="sample" sheetId="3" r:id="rId2"/>
-    <sheet name="simple" sheetId="4" r:id="rId3"/>
+    <sheet name="sample_3" sheetId="7" r:id="rId1"/>
+    <sheet name="complex" sheetId="6" r:id="rId2"/>
+    <sheet name="sample" sheetId="3" r:id="rId3"/>
+    <sheet name="simple" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>y</t>
   </si>
@@ -271,6 +272,9 @@
   <si>
     <t>X Variable 4</t>
   </si>
+  <si>
+    <t>x1*x2*x3</t>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -487,6 +491,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,16 +517,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,8 +533,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,55 +846,1247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ADF0C9-FD79-494B-94E7-E373E8264C07}">
-  <dimension ref="A1:Q103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DB167-D157-4F06-AFFE-9A95C5ED39F3}">
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2244" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="K2" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.67200000000000015</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f>POWER(C3,2)</f>
+        <v>50625</v>
+      </c>
+      <c r="H3" s="1">
+        <f>POWER(D3,2)</f>
+        <v>0.19536400000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <f>POWER(E3,2)</f>
+        <v>0.45158400000000021</v>
+      </c>
+      <c r="J3" s="1">
+        <f>C3*$B3</f>
+        <v>1530</v>
+      </c>
+      <c r="K3" s="1">
+        <f>D3*$B3</f>
+        <v>3.0055999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <f>E3*$B3</f>
+        <v>4.5696000000000012</v>
+      </c>
+      <c r="M3" s="1">
+        <f>PRODUCT(C3:E3)</f>
+        <v>66.830400000000012</v>
+      </c>
+      <c r="N3" s="1">
+        <f>ROWS(B3:B10)</f>
+        <v>8</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P10" si="0">$H$20+$H$17*C3+$H$19*D3</f>
+        <v>6.5125474461501289</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>B3-P3</f>
+        <v>0.2874525538498709</v>
+      </c>
+      <c r="R3" s="1">
+        <f>Q3^2</f>
+        <v>8.2628970714812927E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f>(B3-$B$12)^2</f>
+        <v>8.2656250000000306E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f>(P3-$B$12)^2</f>
+        <v>2.2511371621240992E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f>POWER(C4,2)</f>
+        <v>32400</v>
+      </c>
+      <c r="H4" s="1">
+        <f>POWER(D4,2)</f>
+        <v>0.18922500000000006</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I10" si="1">POWER(E4,2)</f>
+        <v>0.63520900000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J10" si="2">C4*$B4</f>
+        <v>1134</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K10" si="3">D4*$B4</f>
+        <v>2.7405000000000004</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L10" si="4">E4*$B4</f>
+        <v>5.0211000000000006</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M10" si="5">PRODUCT(C4:E4)</f>
+        <v>62.405100000000012</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5126076622159941</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q10" si="6">B4-P4</f>
+        <v>-0.21260766221599425</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R10" si="7">Q4^2</f>
+        <v>4.5202018032950313E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S10" si="8">(B4-$B$12)^2</f>
+        <v>4.5156249999999773E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T10" si="9">(P4-$B$12)^2</f>
+        <v>1.1591152752907951E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <f>POWER(C5,2)</f>
+        <v>36100</v>
+      </c>
+      <c r="H5" s="1">
+        <f>POWER(D5,2)</f>
+        <v>0.20793600000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.579121</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>1216</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9184000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8704000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="5"/>
+        <v>65.933040000000005</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5124377138296285</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.11243771382962819</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2642239491233363E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.265624999999976E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8795670194528527E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>180</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.65100000000000013</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f>POWER(C6,2)</f>
+        <v>32400</v>
+      </c>
+      <c r="H6" s="1">
+        <f>POWER(D6,2)</f>
+        <v>0.17305600000000004</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42380100000000015</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>1116</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5792000000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0362000000000009</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>48.746880000000019</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5127606505792262</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.31276065057922597</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="7"/>
+        <v>9.7819224550740685E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="8"/>
+        <v>9.7656249999999445E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="9"/>
+        <v>6.7938724451298706E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>205</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>POWER(C7,2)</f>
+        <v>42025</v>
+      </c>
+      <c r="H7" s="1">
+        <f>POWER(D7,2)</f>
+        <v>0.201601</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>1414.5</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0981000000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2100000000000009</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="5"/>
+        <v>82.840500000000006</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5124927939861035</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.38750720601389688</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15016183471269673</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15015625000000082</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="9"/>
+        <v>5.1926636266617914E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>225</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.43100000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f>POWER(C8,2)</f>
+        <v>50625</v>
+      </c>
+      <c r="H8" s="1">
+        <f>POWER(D8,2)</f>
+        <v>0.18576100000000004</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7584000000000004</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9920000000000009</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="5"/>
+        <v>75.640500000000003</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5126360183604213</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.11263601836042092</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2686872632089079E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.265624999999976E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="9"/>
+        <v>1.8500994371885169E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>185</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.48700000000000004</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>POWER(C9,2)</f>
+        <v>34225</v>
+      </c>
+      <c r="H9" s="1">
+        <f>POWER(D9,2)</f>
+        <v>0.23716900000000005</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.594441</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>1165.5</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0681000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8573000000000004</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>69.463245000000015</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5121885292294346</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.21218852922943476</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>4.5023971936550694E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="8"/>
+        <v>4.5156249999999773E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="9"/>
+        <v>9.7014040916170182E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>235</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>POWER(C10,2)</f>
+        <v>55225</v>
+      </c>
+      <c r="H10" s="1">
+        <f>POWER(D10,2)</f>
+        <v>0.21996100000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56250000000000022</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>1598</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1892</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>82.66125000000001</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5123291856490582</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.28767081435094166</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>8.275449742933394E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>8.2656250000000306E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="9"/>
+        <v>2.917754248743905E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B3:B10)</f>
+        <v>52.099999999999994</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C3:C10)</f>
+        <v>1625</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:M11" si="10">SUM(D3:D10)</f>
+        <v>3.585</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11" si="11">SUM(E3:E10)</f>
+        <v>6.0820000000000007</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2">
+        <f t="shared" si="10"/>
+        <v>333625</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6100730000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="10"/>
+        <v>4.6650560000000008</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="10"/>
+        <v>10614</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="10"/>
+        <v>23.357500000000002</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="10"/>
+        <v>39.656600000000005</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="10"/>
+        <v>554.52091500000006</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2">
+        <f t="shared" ref="S11:T11" si="12">SUM(S3:S10)</f>
+        <v>0.52874999999999994</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="12"/>
+        <v>2.3040508579754465E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <f>AVERAGE(B3:B10)</f>
+        <v>6.5124999999999993</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C3:C10)</f>
+        <v>203.125</v>
+      </c>
+      <c r="D12" s="1">
+        <f>AVERAGE(D3:D10)</f>
+        <v>0.448125</v>
+      </c>
+      <c r="E12" s="1">
+        <f>AVERAGE(E3:E10)</f>
+        <v>0.76025000000000009</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="16">
+        <f>G11-POWER(C11,2)/$N$3</f>
+        <v>3546.875</v>
+      </c>
+      <c r="H13" s="16">
+        <f>H11-POWER(D11,2)/$N$3</f>
+        <v>3.5448750000002249E-3</v>
+      </c>
+      <c r="I13" s="16">
+        <f>I11-POWER(E11,2)/$N$3</f>
+        <v>4.1215499999999849E-2</v>
+      </c>
+      <c r="J13" s="16">
+        <f>J11-(C11*$B$11)/N3</f>
+        <v>31.187500000001819</v>
+      </c>
+      <c r="K13" s="16">
+        <f>K11-(D11*$B$11)/$N$3</f>
+        <v>1.0187500000004235E-2</v>
+      </c>
+      <c r="L13" s="16">
+        <f>L11-(E11*$B$11)/$N$3</f>
+        <v>4.7575000000001921E-2</v>
+      </c>
+      <c r="M13" s="16">
+        <f>M11-PRODUCT(C11:E11)/N3</f>
+        <v>-3874.4104912500006</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="21">
+        <f>PRODUCT(G13:I13)-POWER(M13,2)</f>
+        <v>-15011056.136496171</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="P15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>T11/S11</f>
+        <v>4.3575429938069912E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="17">
+        <f>I13*J13-K13*L13</f>
+        <v>1.28492373593757</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="3">
+        <f>H13*J13</f>
+        <v>0.11055578906251347</v>
+      </c>
+      <c r="K16">
+        <f>K13*M13</f>
+        <v>-39.470556879625789</v>
+      </c>
+      <c r="M16" s="18">
+        <f>J16-K16</f>
+        <v>39.581112668688306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <f>H16/$H$15</f>
+        <v>-8.5598489823347799E-8</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <f>G13*K13-J13*M13</f>
+        <v>120869.31098492896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="11">
+        <f>H18/$H$15</f>
+        <v>-8.0520191174997396E-3</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="11">
+        <f>B12-H17*C12-H19*D12</f>
+        <v>6.5161256982602742</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20">
+        <f>H17*C12</f>
+        <v>-1.7387193245367521E-5</v>
+      </c>
+      <c r="K20">
+        <f>H19*D12</f>
+        <v>-3.6083110670295706E-3</v>
+      </c>
+      <c r="M20" s="19">
+        <f>B12-J20-K20</f>
+        <v>6.5161256982602742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="41"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0.79357171781173086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="38">
+        <v>0.62975607131066136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0.35207312479365749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="38">
+        <v>0.22122752840372722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="38">
+        <v>3</v>
+      </c>
+      <c r="C36" s="38">
+        <v>0.33298352270551218</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0.11099450756850406</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2.2678960995255002</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0.22269561816795214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="38">
+        <v>4</v>
+      </c>
+      <c r="C37" s="38">
+        <v>0.19576647729448776</v>
+      </c>
+      <c r="D37" s="38">
+        <v>4.894161932362194E-2</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="39">
+        <v>7</v>
+      </c>
+      <c r="C38" s="39">
+        <v>0.52874999999999994</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="38">
+        <v>3.5460271588756882</v>
+      </c>
+      <c r="C41" s="38">
+        <v>1.8023935142542642</v>
+      </c>
+      <c r="D41" s="38">
+        <v>1.9673989785426231</v>
+      </c>
+      <c r="E41" s="38">
+        <v>0.12052812586526715</v>
+      </c>
+      <c r="F41" s="38">
+        <v>-1.4582194914158126</v>
+      </c>
+      <c r="G41" s="38">
+        <v>8.550273809167189</v>
+      </c>
+      <c r="H41" s="38">
+        <v>-1.4582194914158126</v>
+      </c>
+      <c r="I41" s="38">
+        <v>8.550273809167189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="38">
+        <v>8.7335607664088336E-3</v>
+      </c>
+      <c r="C42" s="38">
+        <v>3.7415331360253251E-3</v>
+      </c>
+      <c r="D42" s="38">
+        <v>2.3342198101408766</v>
+      </c>
+      <c r="E42" s="38">
+        <v>7.9882075469516534E-2</v>
+      </c>
+      <c r="F42" s="38">
+        <v>-1.6546005950440305E-3</v>
+      </c>
+      <c r="G42" s="38">
+        <v>1.9121722127861698E-2</v>
+      </c>
+      <c r="H42" s="38">
+        <v>-1.6546005950440305E-3</v>
+      </c>
+      <c r="I42" s="38">
+        <v>1.9121722127861698E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="38">
+        <v>0.7850215683878542</v>
+      </c>
+      <c r="C43" s="38">
+        <v>3.9163696594986073</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0.20044623889981736</v>
+      </c>
+      <c r="E43" s="38">
+        <v>0.85091057572769235</v>
+      </c>
+      <c r="F43" s="38">
+        <v>-10.088563802872203</v>
+      </c>
+      <c r="G43" s="38">
+        <v>11.658606939647912</v>
+      </c>
+      <c r="H43" s="38">
+        <v>-10.088563802872203</v>
+      </c>
+      <c r="I43" s="38">
+        <v>11.658606939647912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="39">
+        <v>1.1057948307973811</v>
+      </c>
+      <c r="C44" s="39">
+        <v>1.1413760391154235</v>
+      </c>
+      <c r="D44" s="39">
+        <v>0.96882604233954461</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0.38749417783550638</v>
+      </c>
+      <c r="F44" s="39">
+        <v>-2.0631730861946815</v>
+      </c>
+      <c r="G44" s="39">
+        <v>4.2747627477894437</v>
+      </c>
+      <c r="H44" s="39">
+        <v>-2.0631730861946815</v>
+      </c>
+      <c r="I44" s="39">
+        <v>4.2747627477894437</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ADF0C9-FD79-494B-94E7-E373E8264C07}">
+  <dimension ref="A1:Q89"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4692" topLeftCell="A13"/>
+      <selection activeCell="B3" sqref="B3:E10"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="23" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="25" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -925,19 +2134,19 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>6.8</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="20">
         <v>225</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="20">
         <v>0.442</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>0.67200000000000015</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="20">
         <v>9.1999999999999993</v>
       </c>
       <c r="H3" s="1">
@@ -976,25 +2185,25 @@
         <f>PRODUCT(C3:F3)</f>
         <v>614.83968000000004</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="22">
         <f>ROWS(B3:B56)</f>
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>6.3</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>180</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>0.43500000000000005</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>0.79700000000000004</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>11.7</v>
       </c>
       <c r="H4" s="1">
@@ -1010,7 +2219,7 @@
         <v>0.63520900000000002</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="J4:K56" si="3">POWER(F4,2)</f>
+        <f t="shared" ref="K4:K56" si="3">POWER(F4,2)</f>
         <v>136.88999999999999</v>
       </c>
       <c r="L4" s="1">
@@ -1036,19 +2245,19 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>6.4</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <v>190</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>0.76100000000000001</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>15.8</v>
       </c>
       <c r="H5" s="1">
@@ -1090,19 +2299,19 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <v>6.2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <v>180</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <v>0.41600000000000004</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>0.65100000000000013</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <v>8.6</v>
       </c>
       <c r="H6" s="1">
@@ -1144,19 +2353,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>6.9</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>205</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>0.44900000000000001</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>0.9</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <v>23.2</v>
       </c>
       <c r="H7" s="1">
@@ -1198,19 +2407,19 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>6.4</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <v>225</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>0.43100000000000005</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>0.78</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>27.4</v>
       </c>
       <c r="H8" s="1">
@@ -1252,19 +2461,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>6.3</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>185</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>0.48700000000000004</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>9.3000000000000007</v>
       </c>
       <c r="H9" s="1">
@@ -1306,19 +2515,19 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>6.8</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <v>235</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>0.46900000000000003</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>0.75000000000000011</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <v>16</v>
       </c>
       <c r="H10" s="1">
@@ -1360,19 +2569,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>6.9</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="20">
         <v>235</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>0.43500000000000005</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>0.81800000000000006</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>4.7</v>
       </c>
       <c r="H11" s="1">
@@ -1414,19 +2623,19 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>6.7</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <v>210</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="20">
         <v>0.48000000000000004</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>0.82500000000000007</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>12.5</v>
       </c>
       <c r="H12" s="1">
@@ -1468,19 +2677,19 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>6.9</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <v>245</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="20">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>0.63200000000000012</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <v>20.100000000000001</v>
       </c>
       <c r="H13" s="1">
@@ -1522,19 +2731,19 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>6.9</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>245</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="20">
         <v>0.49299999999999999</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="20">
         <v>0.75700000000000012</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="20">
         <v>9.1</v>
       </c>
       <c r="H14" s="1">
@@ -1575,19 +2784,19 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+      <c r="B15" s="20">
         <v>6.3</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <v>185</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="20">
         <v>0.37400000000000005</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="20">
         <v>0.70900000000000007</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="20">
         <v>8.1</v>
       </c>
       <c r="H15" s="1">
@@ -1628,19 +2837,19 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>6.1</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <v>185</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="20">
         <v>0.42400000000000004</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="20">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="20">
         <v>8.6</v>
       </c>
       <c r="H16" s="1">
@@ -1681,19 +2890,19 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+      <c r="B17" s="20">
         <v>6.2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <v>180</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="20">
         <v>0.441</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="20">
         <v>0.77500000000000002</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <v>20.3</v>
       </c>
       <c r="H17" s="1">
@@ -1734,19 +2943,19 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="B18" s="20">
         <v>6.8</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <v>220</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="20">
         <v>0.503</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="20">
         <v>0.88</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="20">
         <v>25</v>
       </c>
       <c r="H18" s="1">
@@ -1787,19 +2996,19 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="B19" s="20">
         <v>6.5</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="20">
         <v>194</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="20">
         <v>0.503</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="20">
         <v>0.83300000000000007</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="20">
         <v>19.2</v>
       </c>
       <c r="H19" s="1">
@@ -1840,19 +3049,19 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>7.6</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <v>225</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="20">
         <v>0.42500000000000004</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="20">
         <v>0.57100000000000006</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="20">
         <v>3.3</v>
       </c>
       <c r="H20" s="1">
@@ -1893,19 +3102,19 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
+      <c r="B21" s="20">
         <v>6.3</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="20">
         <v>210</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="20">
         <v>0.37100000000000005</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="20">
         <v>0.81600000000000006</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <v>11.2</v>
       </c>
       <c r="H21" s="1">
@@ -1946,19 +3155,19 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
+      <c r="B22" s="20">
         <v>7.1</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="20">
         <v>240</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="20">
         <v>0.504</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="20">
         <v>0.71400000000000008</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="20">
         <v>10.5</v>
       </c>
       <c r="H22" s="1">
@@ -1999,19 +3208,19 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+      <c r="B23" s="20">
         <v>6.8</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="20">
         <v>225</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="20">
         <v>0.4</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="20">
         <v>0.76500000000000001</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="20">
         <v>10.1</v>
       </c>
       <c r="H23" s="1">
@@ -2052,19 +3261,19 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+      <c r="B24" s="20">
         <v>7.3</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="20">
         <v>263</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="20">
         <v>0.48200000000000004</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="20">
         <v>0.65500000000000014</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="20">
         <v>7.2</v>
       </c>
       <c r="H24" s="1">
@@ -2105,19 +3314,19 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+      <c r="B25" s="20">
         <v>6.4</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="20">
         <v>210</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="20">
         <v>0.47500000000000003</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="20">
         <v>0.24400000000000002</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="20">
         <v>13.6</v>
       </c>
       <c r="H25" s="1">
@@ -2158,19 +3367,19 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
+      <c r="B26" s="20">
         <v>6.8</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <v>235</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="20">
         <v>0.42800000000000005</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="20">
         <v>0.72800000000000009</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="20">
         <v>9</v>
       </c>
       <c r="H26" s="1">
@@ -2211,19 +3420,19 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
+      <c r="B27" s="20">
         <v>7.2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="20">
         <v>230</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="20">
         <v>0.55900000000000005</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="20">
         <v>0.72100000000000009</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="20">
         <v>24.6</v>
       </c>
       <c r="H27" s="1">
@@ -2264,19 +3473,19 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
+      <c r="B28" s="20">
         <v>6.4</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <v>190</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>0.441</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="20">
         <v>0.75700000000000012</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="20">
         <v>12.6</v>
       </c>
       <c r="H28" s="1">
@@ -2317,19 +3526,19 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
+      <c r="B29" s="20">
         <v>6.6</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="20">
         <v>220</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="20">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="20">
         <v>0.74700000000000011</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="20">
         <v>5.6</v>
       </c>
       <c r="H29" s="1">
@@ -2370,19 +3579,19 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="24">
+      <c r="B30" s="20">
         <v>6.8</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="20">
         <v>210</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="20">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="20">
         <v>0.7390000000000001</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="20">
         <v>8.6999999999999993</v>
       </c>
       <c r="H30" s="1">
@@ -2423,19 +3632,19 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="24">
+      <c r="B31" s="20">
         <v>6.1</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="20">
         <v>180</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="20">
         <v>0.41500000000000004</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="20">
         <v>0.71300000000000008</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="20">
         <v>7.7</v>
       </c>
       <c r="H31" s="1">
@@ -2476,19 +3685,19 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="24">
+      <c r="B32" s="20">
         <v>6.5</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="20">
         <v>235</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="20">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="20">
         <v>0.7420000000000001</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="20">
         <v>24.1</v>
       </c>
       <c r="H32" s="1">
@@ -2529,19 +3738,19 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="24">
+      <c r="B33" s="20">
         <v>6.4</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="20">
         <v>185</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="20">
         <v>0.48400000000000004</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>0.8610000000000001</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="20">
         <v>11.7</v>
       </c>
       <c r="H33" s="1">
@@ -2582,19 +3791,19 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="24">
+      <c r="B34" s="20">
         <v>6</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="20">
         <v>175</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="20">
         <v>0.38700000000000007</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="20">
         <v>0.72100000000000009</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="20">
         <v>7.7</v>
       </c>
       <c r="H34" s="1">
@@ -2635,19 +3844,19 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="24">
+      <c r="B35" s="20">
         <v>6</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="20">
         <v>192</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="20">
         <v>0.43600000000000005</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="20">
         <v>0.78500000000000003</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="20">
         <v>9.6</v>
       </c>
       <c r="H35" s="1">
@@ -2688,19 +3897,19 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="24">
+      <c r="B36" s="20">
         <v>7.3</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="20">
         <v>263</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="20">
         <v>0.48200000000000004</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="20">
         <v>0.65500000000000014</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="20">
         <v>7.2</v>
       </c>
       <c r="H36" s="1">
@@ -2741,19 +3950,19 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="24">
+      <c r="B37" s="20">
         <v>6.1</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="20">
         <v>180</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="20">
         <v>0.34</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="20">
         <v>0.82100000000000006</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="20">
         <v>12.3</v>
       </c>
       <c r="H37" s="1">
@@ -2794,19 +4003,19 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="24">
+      <c r="B38" s="20">
         <v>6.7</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="20">
         <v>240</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="20">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="20">
         <v>0.72800000000000009</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="20">
         <v>8.9</v>
       </c>
       <c r="H38" s="1">
@@ -2847,19 +4056,19 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="24">
+      <c r="B39" s="20">
         <v>6.4</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="20">
         <v>210</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="20">
         <v>0.47500000000000003</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="20">
         <v>0.84600000000000009</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="20">
         <v>13.6</v>
       </c>
       <c r="H39" s="1">
@@ -2900,19 +4109,19 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="24">
+      <c r="B40" s="20">
         <v>5.8</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="20">
         <v>160</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="20">
         <v>0.41200000000000003</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="20">
         <v>0.81300000000000006</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="20">
         <v>11.2</v>
       </c>
       <c r="H40" s="1">
@@ -2953,19 +4162,19 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="24">
+      <c r="B41" s="20">
         <v>6.9</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="20">
         <v>230</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="20">
         <v>0.41100000000000003</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="20">
         <v>0.59499999999999997</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="20">
         <v>2.8</v>
       </c>
       <c r="H41" s="1">
@@ -3006,19 +4215,19 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="24">
+      <c r="B42" s="20">
         <v>7</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="20">
         <v>245</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="20">
         <v>0.40700000000000003</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="20">
         <v>0.57300000000000006</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="20">
         <v>3.2</v>
       </c>
       <c r="H42" s="1">
@@ -3059,19 +4268,19 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="24">
+      <c r="B43" s="20">
         <v>7.3</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="20">
         <v>228</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="20">
         <v>0.44500000000000001</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="20">
         <v>0.72600000000000009</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="20">
         <v>9.4</v>
       </c>
       <c r="H43" s="1">
@@ -3112,19 +4321,19 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="24">
+      <c r="B44" s="20">
         <v>5.9</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="20">
         <v>155</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="20">
         <v>0.29100000000000004</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="20">
         <v>0.70700000000000007</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="20">
         <v>11.9</v>
       </c>
       <c r="H44" s="1">
@@ -3165,19 +4374,19 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="24">
+      <c r="B45" s="20">
         <v>6.2</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="20">
         <v>200</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="20">
         <v>0.44900000000000001</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="20">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="20">
         <v>15.4</v>
       </c>
       <c r="H45" s="1">
@@ -3218,19 +4427,19 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="24">
+      <c r="B46" s="20">
         <v>6.8</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="20">
         <v>235</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="20">
         <v>0.54600000000000004</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="20">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="20">
         <v>7.4</v>
       </c>
       <c r="H46" s="1">
@@ -3271,19 +4480,19 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="24">
+      <c r="B47" s="20">
         <v>7</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="20">
         <v>235</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="20">
         <v>0.48000000000000004</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="20">
         <v>0.74400000000000011</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="20">
         <v>18.899999999999999</v>
       </c>
       <c r="H47" s="1">
@@ -3324,19 +4533,19 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="24">
+      <c r="B48" s="20">
         <v>5.9</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="20">
         <v>105</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="20">
         <v>0.35900000000000004</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="20">
         <v>0.83900000000000008</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="20">
         <v>7.9</v>
       </c>
       <c r="H48" s="1">
@@ -3377,19 +4586,19 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="24">
+      <c r="B49" s="20">
         <v>6.1</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="20">
         <v>180</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="20">
         <v>0.52800000000000002</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="20">
         <v>0.79</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="20">
         <v>12.2</v>
       </c>
       <c r="H49" s="1">
@@ -3430,19 +4639,19 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="24">
+      <c r="B50" s="20">
         <v>5.7</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="20">
         <v>185</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="20">
         <v>0.35200000000000004</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="20">
         <v>0.70100000000000007</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="20">
         <v>11</v>
       </c>
       <c r="H50" s="1">
@@ -3483,19 +4692,19 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="24">
+      <c r="B51" s="20">
         <v>7.1</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="20">
         <v>245</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="20">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="20">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="20">
         <v>2.8</v>
       </c>
       <c r="H51" s="1">
@@ -3536,19 +4745,19 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="24">
+      <c r="B52" s="20">
         <v>5.8</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="20">
         <v>180</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="20">
         <v>0.42500000000000004</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="20">
         <v>0.87200000000000011</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="20">
         <v>11.8</v>
       </c>
       <c r="H52" s="1">
@@ -3589,19 +4798,19 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="24">
+      <c r="B53" s="20">
         <v>7.4</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="20">
         <v>240</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="20">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="20">
         <v>0.71300000000000008</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="20">
         <v>17.100000000000001</v>
       </c>
       <c r="H53" s="1">
@@ -3642,19 +4851,19 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="24">
+      <c r="B54" s="20">
         <v>6.8</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="20">
         <v>225</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="20">
         <v>0.48200000000000004</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="20">
         <v>0.70100000000000007</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="20">
         <v>11.6</v>
       </c>
       <c r="H54" s="1">
@@ -3695,19 +4904,19 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="24">
+      <c r="B55" s="20">
         <v>6.8</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="20">
         <v>215</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="20">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="20">
         <v>0.7340000000000001</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="20">
         <v>5.8</v>
       </c>
       <c r="H55" s="1">
@@ -3748,19 +4957,19 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="24">
+      <c r="B56" s="20">
         <v>7</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="20">
         <v>230</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="20">
         <v>0.43500000000000005</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="20">
         <v>0.76400000000000001</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="20">
         <v>8.3000000000000007</v>
       </c>
       <c r="H56" s="1">
@@ -3934,24 +5143,22 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H61" s="23" t="s">
+      <c r="H61" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="21">
         <f>PRODUCT(H59:K59)-POWER(P59,2)</f>
         <v>-1.9458583360686516E+22</v>
       </c>
-      <c r="J61"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H62" s="23" t="s">
+      <c r="H62" t="s">
         <v>53</v>
       </c>
       <c r="I62" s="17">
         <f>I59*J59-K59*L59-M59-N59*O59</f>
         <v>-1132757.9600600346</v>
       </c>
-      <c r="J62"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H63" s="11" t="s">
@@ -3961,64 +5168,58 @@
         <f>I60/I61</f>
         <v>0</v>
       </c>
-      <c r="J63"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70"/>
-    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="25"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
+      <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72">
         <v>0.84371696676263497</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="29" t="s">
+      <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73">
         <v>0.7118583200031412</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+      <c r="A74" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74">
         <v>0.68833655020747919</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="29" t="s">
+      <c r="A75" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="29">
+      <c r="B75">
         <v>0.25618583603317369</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" s="23">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77"/>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4026,256 +5227,243 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
+      <c r="A80" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80">
         <v>4</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80">
         <v>7.9449979793091323</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80">
         <v>1.9862494948272831</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80">
         <v>30.263807791130901</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80">
         <v>1.0619948950171825E-12</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+      <c r="A81" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81">
         <v>49</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81">
         <v>3.2159279466167923</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81">
         <v>6.5631182584016165E-2</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="23">
         <v>53</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="23">
         <v>11.160925925925925</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83"/>
-    </row>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="G84" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I84" s="31" t="s">
+      <c r="I84" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+      <c r="A85" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="26">
         <v>3.7980498373754665</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85">
         <v>0.44843708040117353</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85">
         <v>8.469526725973946</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E85">
         <v>3.6907626652837194E-11</v>
       </c>
-      <c r="F85" s="29">
+      <c r="F85">
         <v>2.8968817851907347</v>
       </c>
-      <c r="G85" s="29">
+      <c r="G85">
         <v>4.6992178895601988</v>
       </c>
-      <c r="H85" s="29">
+      <c r="H85">
         <v>2.8968817851907347</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I85">
         <v>4.6992178895601988</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+      <c r="A86" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="26">
         <v>1.1489032196603119E-2</v>
       </c>
-      <c r="C86" s="29">
+      <c r="C86">
         <v>1.4544409802150027E-3</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86">
         <v>7.8992770094423168</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86">
         <v>2.7244231483398357E-10</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86">
         <v>8.566223618897072E-3</v>
       </c>
-      <c r="G86" s="29">
+      <c r="G86">
         <v>1.4411840774309166E-2</v>
       </c>
-      <c r="H86" s="29">
+      <c r="H86">
         <v>8.566223618897072E-3</v>
       </c>
-      <c r="I86" s="29">
+      <c r="I86">
         <v>1.4411840774309166E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="29" t="s">
+      <c r="A87" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="26">
         <v>1.1388895664413987</v>
       </c>
-      <c r="C87" s="29">
+      <c r="C87">
         <v>0.79492147714794781</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87">
         <v>1.4327070021149182</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87">
         <v>0.15829098264300434</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F87">
         <v>-0.45856494949731319</v>
       </c>
-      <c r="G87" s="29">
+      <c r="G87">
         <v>2.7363440823801106</v>
       </c>
-      <c r="H87" s="29">
+      <c r="H87">
         <v>-0.45856494949731319</v>
       </c>
-      <c r="I87" s="29">
+      <c r="I87">
         <v>2.7363440823801106</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="29" t="s">
+      <c r="A88" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="26">
         <v>-4.9315549524955225E-2</v>
       </c>
-      <c r="C88" s="29">
+      <c r="C88">
         <v>0.38034750789191601</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88">
         <v>-0.1296591892984594</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88">
         <v>0.89736686750074424</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88">
         <v>-0.81365248288836733</v>
       </c>
-      <c r="G88" s="29">
+      <c r="G88">
         <v>0.71502138383845693</v>
       </c>
-      <c r="H88" s="29">
+      <c r="H88">
         <v>-0.81365248288836733</v>
       </c>
-      <c r="I88" s="29">
+      <c r="I88">
         <v>0.71502138383845693</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="34">
+      <c r="B89" s="27">
         <v>-8.273346973674621E-3</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="23">
         <v>6.659882898972516E-3</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89" s="23">
         <v>-1.2422661327800568</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="23">
         <v>0.22005112306637575</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="23">
         <v>-2.1656882729630275E-2</v>
       </c>
-      <c r="G89" s="30">
+      <c r="G89" s="23">
         <v>5.110188782281035E-3</v>
       </c>
-      <c r="H89" s="30">
+      <c r="H89" s="23">
         <v>-2.1656882729630275E-2</v>
       </c>
-      <c r="I89" s="30">
+      <c r="I89" s="23">
         <v>5.110188782281035E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4289,7 +5477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62D63D9-D315-450E-A6EF-C110D072CC47}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
@@ -4315,26 +5503,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="M1" s="20" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="M1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -4953,7 +6141,7 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="21">
         <f>PRODUCT(F13:G13)-POWER(J13,2)</f>
         <v>11272.5</v>
       </c>
@@ -5065,7 +6253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8305634-3A76-4F1B-A6AF-7B4BA422C774}">
   <dimension ref="A1:H7"/>
   <sheetViews>
